--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>218705.3084499346</v>
+        <v>218705.3084499347</v>
       </c>
     </row>
     <row r="7">
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58354.60936318344</v>
+        <v>58354.60936318346</v>
       </c>
       <c r="C2" t="n">
         <v>58354.60936318346</v>
       </c>
       <c r="D2" t="n">
-        <v>58354.60936318346</v>
+        <v>58354.60936318347</v>
       </c>
       <c r="E2" t="n">
         <v>58354.60936318346</v>
       </c>
       <c r="F2" t="n">
-        <v>58354.60936318346</v>
+        <v>58354.60936318347</v>
       </c>
       <c r="G2" t="n">
-        <v>58354.60936318346</v>
+        <v>58354.60936318347</v>
       </c>
       <c r="H2" t="n">
-        <v>58354.60936318346</v>
+        <v>58354.60936318345</v>
       </c>
       <c r="I2" t="n">
         <v>58354.60936318346</v>
       </c>
       <c r="J2" t="n">
+        <v>58354.60936318347</v>
+      </c>
+      <c r="K2" t="n">
         <v>58354.60936318345</v>
-      </c>
-      <c r="K2" t="n">
-        <v>58354.60936318344</v>
       </c>
       <c r="L2" t="n">
         <v>58354.60936318345</v>
@@ -26347,10 +26349,10 @@
         <v>58354.60936318347</v>
       </c>
       <c r="N2" t="n">
-        <v>58354.60936318345</v>
+        <v>58354.60936318347</v>
       </c>
       <c r="O2" t="n">
-        <v>58354.60936318346</v>
+        <v>58354.60936318347</v>
       </c>
       <c r="P2" t="n">
         <v>58354.60936318347</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3507.151412934916</v>
+        <v>3507.151412934931</v>
       </c>
       <c r="C6" t="n">
         <v>3507.151412934931</v>
       </c>
       <c r="D6" t="n">
-        <v>3507.151412934931</v>
+        <v>3507.151412934945</v>
       </c>
       <c r="E6" t="n">
         <v>37134.75141293493</v>
       </c>
       <c r="F6" t="n">
-        <v>37134.75141293493</v>
+        <v>37134.75141293494</v>
       </c>
       <c r="G6" t="n">
-        <v>37134.75141293493</v>
+        <v>37134.75141293494</v>
       </c>
       <c r="H6" t="n">
         <v>37134.75141293493</v>
@@ -26543,22 +26545,22 @@
         <v>37134.75141293493</v>
       </c>
       <c r="J6" t="n">
-        <v>37134.75141293492</v>
+        <v>37134.75141293494</v>
       </c>
       <c r="K6" t="n">
-        <v>37134.75141293491</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="L6" t="n">
-        <v>37134.75141293492</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="M6" t="n">
         <v>37134.75141293494</v>
       </c>
       <c r="N6" t="n">
-        <v>37134.75141293492</v>
+        <v>37134.75141293494</v>
       </c>
       <c r="O6" t="n">
-        <v>37134.75141293493</v>
+        <v>37134.75141293494</v>
       </c>
       <c r="P6" t="n">
         <v>37134.75141293494</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>218705.3084499347</v>
+        <v>93468.11874098075</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6058391.215842249</v>
+        <v>5597282.07722952</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22564531.09171689</v>
+        <v>22112598.02496256</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3864543.259882622</v>
+        <v>4054159.84101263</v>
       </c>
     </row>
     <row r="11">
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2405,13 +2405,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2645,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
     </row>
     <row r="30">
@@ -2876,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
     </row>
     <row r="31">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3170,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
     </row>
     <row r="34">
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3356,10 +3356,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3410,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
     </row>
     <row r="37">
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
     </row>
     <row r="39">
@@ -3638,16 +3638,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
     </row>
     <row r="43">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3991,16 +3991,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>34.46822845646948</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4112,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>41.07780513029389</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>41.07780513029389</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>79.75957862517986</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>37.05885789816839</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>76.54140846029554</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>116.0239590224227</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>41.07780513029389</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>79.75957862517987</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>82.15561026058782</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>121.638160822715</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>89.54892110707272</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>79.75957862517986</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>82.15561026058782</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>121.638160822715</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>89.54892110707272</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>129.0314716691999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>129.0314716691999</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>129.0314716691999</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>79.75957862517986</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>41.07780513029389</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>41.07780513029389</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>79.75957862517986</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>82.15561026058782</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>121.638160822715</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>41.07780513029389</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>3.190509136333525</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>40.27702806305272</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>79.75957862517987</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>82.15561026058782</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>121.638160822715</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>89.54892110707272</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>79.75957862517986</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>84.42485816956594</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>84.42485816956594</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>84.42485816956594</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>84.42485816956594</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>84.42485816956594</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>44.14065190272872</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>44.14065190272872</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.856445635891503</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>82.15561026058782</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>121.638160822715</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>84.42485816956594</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>84.42485816956594</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>84.42485816956594</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>84.42485816956594</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>84.42485816956594</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>84.42485816956594</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>89.54892110707272</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>79.75957862517986</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
     </row>
   </sheetData>
@@ -9646,16 +9646,16 @@
         <v>229.8722545957376</v>
       </c>
       <c r="M23" t="n">
-        <v>224.5875773965909</v>
+        <v>262.8575733500862</v>
       </c>
       <c r="N23" t="n">
-        <v>223.6777370066762</v>
+        <v>263.559101210845</v>
       </c>
       <c r="O23" t="n">
-        <v>224.3457561361446</v>
+        <v>264.2271203403134</v>
       </c>
       <c r="P23" t="n">
-        <v>225.4521708613878</v>
+        <v>265.3335350655566</v>
       </c>
       <c r="Q23" t="n">
         <v>216.7480476275882</v>
@@ -9716,25 +9716,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
         <v>134.395403</v>
       </c>
       <c r="L24" t="n">
-        <v>135.0905202853774</v>
+        <v>165.8925254848475</v>
       </c>
       <c r="M24" t="n">
-        <v>138.5806830739679</v>
+        <v>178.4620472781367</v>
       </c>
       <c r="N24" t="n">
         <v>128.05816928125</v>
       </c>
       <c r="O24" t="n">
-        <v>139.0313383333333</v>
+        <v>178.9127025375022</v>
       </c>
       <c r="P24" t="n">
-        <v>130.625047228972</v>
+        <v>170.5064114331408</v>
       </c>
       <c r="Q24" t="n">
         <v>136.482229733871</v>
@@ -9801,19 +9801,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L25" t="n">
-        <v>131.5125593742073</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M25" t="n">
-        <v>135.4526393489149</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N25" t="n">
-        <v>124.4934058536024</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O25" t="n">
-        <v>134.9951249905467</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P25" t="n">
-        <v>134.2848039479189</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q25" t="n">
         <v>67.95667671286152</v>
@@ -9883,19 +9883,19 @@
         <v>229.8722545957376</v>
       </c>
       <c r="M26" t="n">
-        <v>224.5875773965909</v>
+        <v>258.7980306913736</v>
       </c>
       <c r="N26" t="n">
-        <v>223.6777370066762</v>
+        <v>263.559101210845</v>
       </c>
       <c r="O26" t="n">
-        <v>224.3457561361446</v>
+        <v>264.2271203403134</v>
       </c>
       <c r="P26" t="n">
-        <v>225.4521708613878</v>
+        <v>265.3335350655566</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R26" t="n">
         <v>68.34507666790174</v>
@@ -9953,7 +9953,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
         <v>134.395403</v>
@@ -9965,16 +9965,16 @@
         <v>138.5806830739679</v>
       </c>
       <c r="N27" t="n">
-        <v>128.05816928125</v>
+        <v>158.8601744807202</v>
       </c>
       <c r="O27" t="n">
-        <v>139.0313383333333</v>
+        <v>178.9127025375022</v>
       </c>
       <c r="P27" t="n">
-        <v>130.625047228972</v>
+        <v>170.5064114331408</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.482229733871</v>
+        <v>176.3635939380398</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10038,19 +10038,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L28" t="n">
-        <v>131.5125593742073</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M28" t="n">
-        <v>135.4526393489149</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N28" t="n">
-        <v>124.4934058536024</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O28" t="n">
-        <v>134.9951249905467</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P28" t="n">
-        <v>134.2848039479189</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q28" t="n">
         <v>67.95667671286152</v>
@@ -10114,16 +10114,16 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K29" t="n">
-        <v>214.587604768856</v>
+        <v>254.4689689730249</v>
       </c>
       <c r="L29" t="n">
-        <v>229.8722545957376</v>
+        <v>269.7536187999064</v>
       </c>
       <c r="M29" t="n">
-        <v>224.5875773965909</v>
+        <v>264.4689416007598</v>
       </c>
       <c r="N29" t="n">
-        <v>223.6777370066762</v>
+        <v>257.8881903014588</v>
       </c>
       <c r="O29" t="n">
         <v>224.3457561361446</v>
@@ -10132,7 +10132,7 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10190,19 +10190,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
-        <v>134.395403</v>
+        <v>174.2767672041689</v>
       </c>
       <c r="L30" t="n">
-        <v>135.0905202853774</v>
+        <v>174.9718844895462</v>
       </c>
       <c r="M30" t="n">
-        <v>138.5806830739679</v>
+        <v>169.382688273438</v>
       </c>
       <c r="N30" t="n">
-        <v>128.05816928125</v>
+        <v>167.9395334854188</v>
       </c>
       <c r="O30" t="n">
         <v>139.0313383333333</v>
@@ -10275,19 +10275,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L31" t="n">
-        <v>131.5125593742073</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M31" t="n">
-        <v>135.4526393489149</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N31" t="n">
-        <v>124.4934058536024</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O31" t="n">
-        <v>134.9951249905467</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P31" t="n">
-        <v>134.2848039479189</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q31" t="n">
         <v>67.95667671286152</v>
@@ -10351,16 +10351,16 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K32" t="n">
-        <v>214.587604768856</v>
+        <v>254.4689689730249</v>
       </c>
       <c r="L32" t="n">
-        <v>229.8722545957376</v>
+        <v>269.7536187999064</v>
       </c>
       <c r="M32" t="n">
-        <v>224.5875773965909</v>
+        <v>264.4689416007598</v>
       </c>
       <c r="N32" t="n">
-        <v>223.6777370066762</v>
+        <v>257.8881903014588</v>
       </c>
       <c r="O32" t="n">
         <v>224.3457561361446</v>
@@ -10369,7 +10369,7 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q32" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R32" t="n">
         <v>68.34507666790174</v>
@@ -10427,16 +10427,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
-        <v>134.395403</v>
+        <v>174.2767672041689</v>
       </c>
       <c r="L33" t="n">
-        <v>135.0905202853774</v>
+        <v>174.9718844895462</v>
       </c>
       <c r="M33" t="n">
-        <v>138.5806830739679</v>
+        <v>178.4620472781367</v>
       </c>
       <c r="N33" t="n">
         <v>128.05816928125</v>
@@ -10445,7 +10445,7 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P33" t="n">
-        <v>130.625047228972</v>
+        <v>161.4270524284422</v>
       </c>
       <c r="Q33" t="n">
         <v>136.482229733871</v>
@@ -10512,19 +10512,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L34" t="n">
-        <v>131.5125593742073</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M34" t="n">
-        <v>135.4526393489149</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N34" t="n">
-        <v>124.4934058536024</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O34" t="n">
-        <v>134.9951249905467</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P34" t="n">
-        <v>134.2848039479189</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q34" t="n">
         <v>67.95667671286152</v>
@@ -10591,16 +10591,16 @@
         <v>214.587604768856</v>
       </c>
       <c r="L35" t="n">
-        <v>229.8722545957376</v>
+        <v>268.1422505492329</v>
       </c>
       <c r="M35" t="n">
-        <v>224.5875773965909</v>
+        <v>264.4689416007598</v>
       </c>
       <c r="N35" t="n">
-        <v>223.6777370066762</v>
+        <v>263.559101210845</v>
       </c>
       <c r="O35" t="n">
-        <v>224.3457561361446</v>
+        <v>264.2271203403134</v>
       </c>
       <c r="P35" t="n">
         <v>225.4521708613878</v>
@@ -10664,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
         <v>134.395403</v>
@@ -10673,16 +10673,16 @@
         <v>135.0905202853774</v>
       </c>
       <c r="M36" t="n">
-        <v>138.5806830739679</v>
+        <v>169.382688273438</v>
       </c>
       <c r="N36" t="n">
-        <v>128.05816928125</v>
+        <v>167.9395334854188</v>
       </c>
       <c r="O36" t="n">
-        <v>139.0313383333333</v>
+        <v>178.9127025375022</v>
       </c>
       <c r="P36" t="n">
-        <v>130.625047228972</v>
+        <v>170.5064114331408</v>
       </c>
       <c r="Q36" t="n">
         <v>136.482229733871</v>
@@ -10749,19 +10749,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L37" t="n">
-        <v>131.5125593742073</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M37" t="n">
-        <v>135.4526393489149</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N37" t="n">
-        <v>124.4934058536024</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O37" t="n">
-        <v>134.9951249905467</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P37" t="n">
-        <v>134.2848039479189</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q37" t="n">
         <v>67.95667671286152</v>
@@ -10828,22 +10828,22 @@
         <v>214.587604768856</v>
       </c>
       <c r="L38" t="n">
-        <v>229.8722545957376</v>
+        <v>269.7536187999064</v>
       </c>
       <c r="M38" t="n">
-        <v>224.5875773965909</v>
+        <v>264.4689416007598</v>
       </c>
       <c r="N38" t="n">
-        <v>223.6777370066762</v>
+        <v>263.559101210845</v>
       </c>
       <c r="O38" t="n">
-        <v>224.3457561361446</v>
+        <v>258.5562094309273</v>
       </c>
       <c r="P38" t="n">
         <v>225.4521708613878</v>
       </c>
       <c r="Q38" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R38" t="n">
         <v>68.34507666790174</v>
@@ -10904,19 +10904,19 @@
         <v>123.666686</v>
       </c>
       <c r="K39" t="n">
-        <v>134.395403</v>
+        <v>172.6653989534954</v>
       </c>
       <c r="L39" t="n">
-        <v>135.0905202853774</v>
+        <v>174.9718844895462</v>
       </c>
       <c r="M39" t="n">
-        <v>138.5806830739679</v>
+        <v>178.4620472781367</v>
       </c>
       <c r="N39" t="n">
         <v>128.05816928125</v>
       </c>
       <c r="O39" t="n">
-        <v>139.0313383333333</v>
+        <v>178.9127025375022</v>
       </c>
       <c r="P39" t="n">
         <v>130.625047228972</v>
@@ -10986,19 +10986,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L40" t="n">
-        <v>131.5125593742073</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M40" t="n">
-        <v>135.4526393489149</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N40" t="n">
-        <v>124.4934058536024</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O40" t="n">
-        <v>134.9951249905467</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P40" t="n">
-        <v>134.2848039479189</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q40" t="n">
         <v>67.95667671286152</v>
@@ -11065,22 +11065,22 @@
         <v>214.587604768856</v>
       </c>
       <c r="L41" t="n">
-        <v>229.8722545957376</v>
+        <v>269.7536187999064</v>
       </c>
       <c r="M41" t="n">
-        <v>224.5875773965909</v>
+        <v>264.4689416007598</v>
       </c>
       <c r="N41" t="n">
-        <v>223.6777370066762</v>
+        <v>263.559101210845</v>
       </c>
       <c r="O41" t="n">
-        <v>224.3457561361446</v>
+        <v>258.5562094309273</v>
       </c>
       <c r="P41" t="n">
         <v>225.4521708613878</v>
       </c>
       <c r="Q41" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R41" t="n">
         <v>68.34507666790174</v>
@@ -11138,19 +11138,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
         <v>134.395403</v>
       </c>
       <c r="L42" t="n">
-        <v>135.0905202853774</v>
+        <v>174.9718844895462</v>
       </c>
       <c r="M42" t="n">
-        <v>138.5806830739679</v>
+        <v>178.4620472781367</v>
       </c>
       <c r="N42" t="n">
-        <v>128.05816928125</v>
+        <v>158.8601744807202</v>
       </c>
       <c r="O42" t="n">
         <v>139.0313383333333</v>
@@ -11159,7 +11159,7 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.482229733871</v>
+        <v>176.3635939380398</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11223,19 +11223,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L43" t="n">
-        <v>131.5125593742073</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M43" t="n">
-        <v>135.4526393489149</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N43" t="n">
-        <v>124.4934058536024</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O43" t="n">
-        <v>134.9951249905467</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P43" t="n">
-        <v>134.2848039479189</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q43" t="n">
         <v>67.95667671286152</v>
@@ -11302,22 +11302,22 @@
         <v>214.587604768856</v>
       </c>
       <c r="L44" t="n">
-        <v>229.8722545957376</v>
+        <v>269.7536187999064</v>
       </c>
       <c r="M44" t="n">
-        <v>224.5875773965909</v>
+        <v>264.4689416007598</v>
       </c>
       <c r="N44" t="n">
-        <v>223.6777370066762</v>
+        <v>263.559101210845</v>
       </c>
       <c r="O44" t="n">
-        <v>224.3457561361446</v>
+        <v>258.5562094309273</v>
       </c>
       <c r="P44" t="n">
         <v>225.4521708613878</v>
       </c>
       <c r="Q44" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11375,22 +11375,22 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
         <v>134.395403</v>
       </c>
       <c r="L45" t="n">
-        <v>135.0905202853774</v>
+        <v>174.9718844895462</v>
       </c>
       <c r="M45" t="n">
-        <v>138.5806830739679</v>
+        <v>178.4620472781367</v>
       </c>
       <c r="N45" t="n">
-        <v>128.05816928125</v>
+        <v>158.8601744807202</v>
       </c>
       <c r="O45" t="n">
-        <v>139.0313383333333</v>
+        <v>178.9127025375022</v>
       </c>
       <c r="P45" t="n">
         <v>130.625047228972</v>
@@ -11460,19 +11460,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L46" t="n">
-        <v>131.5125593742073</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M46" t="n">
-        <v>135.4526393489149</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N46" t="n">
-        <v>124.4934058536024</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O46" t="n">
-        <v>134.9951249905467</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P46" t="n">
-        <v>134.2848039479189</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q46" t="n">
         <v>67.95667671286152</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>141.8508227008771</v>
+        <v>101.9694584967082</v>
       </c>
       <c r="S23" t="n">
-        <v>205.8649517235392</v>
+        <v>165.9835875193704</v>
       </c>
       <c r="T23" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4777635765444</v>
+        <v>211.5963993723756</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>293.4057159314875</v>
       </c>
       <c r="W23" t="n">
         <v>350.5301170005546</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>130.2446200193129</v>
       </c>
       <c r="C24" t="n">
         <v>171.025583927401</v>
@@ -24293,13 +24293,13 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>116.152069503005</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>103.6248678793804</v>
       </c>
       <c r="G24" t="n">
-        <v>136.0232102050423</v>
+        <v>96.14184600087347</v>
       </c>
       <c r="H24" t="n">
         <v>110.4625155221328</v>
@@ -24417,19 +24417,19 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T25" t="n">
-        <v>228.3324659915077</v>
+        <v>188.4511017873388</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0522703910642</v>
+        <v>250.9247648000323</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>246.2112126832467</v>
       </c>
       <c r="X25" t="n">
-        <v>226.1403599323093</v>
+        <v>186.2589957281404</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -24451,13 +24451,13 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>347.9905301642556</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>367.412499276372</v>
       </c>
       <c r="G26" t="n">
-        <v>414.8547654038309</v>
+        <v>374.9734011996621</v>
       </c>
       <c r="H26" t="n">
         <v>338.1439033881534</v>
@@ -24496,7 +24496,7 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T26" t="n">
-        <v>222.9651171964204</v>
+        <v>183.0837529922515</v>
       </c>
       <c r="U26" t="n">
         <v>251.4777635765444</v>
@@ -24533,10 +24533,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5062320835493</v>
+        <v>108.3787264925174</v>
       </c>
       <c r="G27" t="n">
-        <v>136.0232102050423</v>
+        <v>96.14184600087347</v>
       </c>
       <c r="H27" t="n">
         <v>110.4625155221328</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>94.69497976109122</v>
+        <v>54.81361555692238</v>
       </c>
       <c r="S27" t="n">
         <v>168.9616139056444</v>
@@ -24584,7 +24584,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>249.98934675</v>
+        <v>210.1079825458312</v>
       </c>
       <c r="X27" t="n">
         <v>204.4616296084783</v>
@@ -24606,13 +24606,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
-        <v>149.0055665145194</v>
+        <v>113.8780609234875</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>107.0932599690303</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>106.2776572056356</v>
       </c>
       <c r="G28" t="n">
         <v>167.8895889301081</v>
@@ -24663,7 +24663,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>246.2112126832467</v>
       </c>
       <c r="X28" t="n">
         <v>226.1403599323093</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.716409991395</v>
+        <v>343.8350457872262</v>
       </c>
       <c r="C29" t="n">
         <v>366.9850956789426</v>
@@ -24691,10 +24691,10 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>407.2938634805408</v>
+        <v>367.412499276372</v>
       </c>
       <c r="G29" t="n">
-        <v>414.8547654038309</v>
+        <v>374.9734011996621</v>
       </c>
       <c r="H29" t="n">
         <v>338.1439033881534</v>
@@ -24748,7 +24748,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>351.5595661602039</v>
       </c>
     </row>
     <row r="30">
@@ -24764,13 +24764,13 @@
         <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>106.2310593704767</v>
       </c>
       <c r="E30" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>108.3787264925174</v>
       </c>
       <c r="G30" t="n">
         <v>136.0232102050423</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>94.69497976109122</v>
+        <v>54.81361555692238</v>
       </c>
       <c r="S30" t="n">
         <v>168.9616139056444</v>
@@ -24827,7 +24827,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>203.671151418586</v>
+        <v>163.7897872144172</v>
       </c>
     </row>
     <row r="31">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>180.0836914906838</v>
+        <v>144.9561858996519</v>
       </c>
       <c r="C31" t="n">
         <v>167.3365529312023</v>
@@ -24885,7 +24885,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R31" t="n">
-        <v>173.3911476697823</v>
+        <v>133.5097834656135</v>
       </c>
       <c r="S31" t="n">
         <v>222.3574069614225</v>
@@ -24894,10 +24894,10 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0522703910642</v>
+        <v>246.1709061868954</v>
       </c>
       <c r="V31" t="n">
-        <v>252.9363510669392</v>
+        <v>213.0549868627703</v>
       </c>
       <c r="W31" t="n">
         <v>286.0925768874155</v>
@@ -24937,7 +24937,7 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I32" t="n">
-        <v>205.224307868124</v>
+        <v>170.0968022770921</v>
       </c>
       <c r="J32" t="n">
         <v>0.6592771345624158</v>
@@ -24967,13 +24967,13 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S32" t="n">
-        <v>205.8649517235392</v>
+        <v>165.9835875193704</v>
       </c>
       <c r="T32" t="n">
-        <v>222.9651171964204</v>
+        <v>183.0837529922515</v>
       </c>
       <c r="U32" t="n">
-        <v>251.4777635765444</v>
+        <v>211.5963993723756</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
@@ -24998,7 +24998,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>171.025583927401</v>
+        <v>135.8980783363691</v>
       </c>
       <c r="D33" t="n">
         <v>146.1124235746456</v>
@@ -25046,7 +25046,7 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S33" t="n">
-        <v>168.9616139056444</v>
+        <v>129.0802497014755</v>
       </c>
       <c r="T33" t="n">
         <v>198.3825319082687</v>
@@ -25058,13 +25058,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>249.98934675</v>
+        <v>210.1079825458312</v>
       </c>
       <c r="X33" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
-        <v>203.671151418586</v>
+        <v>163.7897872144172</v>
       </c>
     </row>
     <row r="34">
@@ -25080,16 +25080,16 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0055665145194</v>
+        <v>113.8780609234875</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>107.0932599690303</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>106.2776572056356</v>
       </c>
       <c r="G34" t="n">
-        <v>167.8895889301081</v>
+        <v>128.0082247259392</v>
       </c>
       <c r="H34" t="n">
         <v>161.6340720089168</v>
@@ -25168,7 +25168,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>414.8547654038309</v>
+        <v>379.727259812799</v>
       </c>
       <c r="H35" t="n">
         <v>338.1439033881534</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>141.8508227008771</v>
+        <v>101.9694584967082</v>
       </c>
       <c r="S35" t="n">
-        <v>205.8649517235392</v>
+        <v>165.9835875193704</v>
       </c>
       <c r="T35" t="n">
-        <v>222.9651171964204</v>
+        <v>183.0837529922515</v>
       </c>
       <c r="U35" t="n">
         <v>251.4777635765444</v>
@@ -25244,10 +25244,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>103.6248678793804</v>
       </c>
       <c r="G36" t="n">
-        <v>136.0232102050423</v>
+        <v>96.14184600087347</v>
       </c>
       <c r="H36" t="n">
         <v>110.4625155221328</v>
@@ -25298,10 +25298,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
-        <v>204.4616296084783</v>
+        <v>169.3341240174464</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>163.7897872144172</v>
       </c>
     </row>
     <row r="37">
@@ -25314,16 +25314,16 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
-        <v>167.3365529312023</v>
+        <v>132.2090473401704</v>
       </c>
       <c r="D37" t="n">
-        <v>149.0055665145194</v>
+        <v>109.1242023103505</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>107.0932599690303</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>106.2776572056356</v>
       </c>
       <c r="G37" t="n">
         <v>167.8895889301081</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>348.5889044003632</v>
       </c>
       <c r="C38" t="n">
         <v>366.9850956789426</v>
@@ -25402,10 +25402,10 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>407.2938634805408</v>
+        <v>367.412499276372</v>
       </c>
       <c r="G38" t="n">
-        <v>414.8547654038309</v>
+        <v>374.9734011996621</v>
       </c>
       <c r="H38" t="n">
         <v>338.1439033881534</v>
@@ -25459,7 +25459,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>346.805707547067</v>
       </c>
     </row>
     <row r="39">
@@ -25526,16 +25526,16 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6571770672012</v>
+        <v>189.5296714761693</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>192.0273668354863</v>
       </c>
       <c r="W39" t="n">
-        <v>249.98934675</v>
+        <v>210.1079825458312</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>164.5802654043094</v>
       </c>
       <c r="Y39" t="n">
         <v>203.671151418586</v>
@@ -25557,10 +25557,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
-        <v>146.9746241731992</v>
+        <v>111.8471185821673</v>
       </c>
       <c r="F40" t="n">
-        <v>146.1590214098045</v>
+        <v>106.2776572056356</v>
       </c>
       <c r="G40" t="n">
         <v>167.8895889301081</v>
@@ -25611,10 +25611,10 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>246.2112126832467</v>
       </c>
       <c r="X40" t="n">
-        <v>226.1403599323093</v>
+        <v>186.2589957281404</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -25639,10 +25639,10 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>372.166357889509</v>
       </c>
       <c r="G41" t="n">
-        <v>414.8547654038309</v>
+        <v>374.9734011996621</v>
       </c>
       <c r="H41" t="n">
         <v>338.1439033881534</v>
@@ -25681,10 +25681,10 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T41" t="n">
-        <v>222.9651171964204</v>
+        <v>183.0837529922515</v>
       </c>
       <c r="U41" t="n">
-        <v>251.4777635765444</v>
+        <v>211.5963993723756</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
@@ -25709,7 +25709,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>131.1442197232321</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
@@ -25760,7 +25760,7 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T42" t="n">
-        <v>198.3825319082687</v>
+        <v>158.5011677040998</v>
       </c>
       <c r="U42" t="n">
         <v>224.6571770672012</v>
@@ -25772,10 +25772,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>169.3341240174464</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>163.7897872144172</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.8895889301081</v>
+        <v>128.0082247259392</v>
       </c>
       <c r="H43" t="n">
         <v>161.6340720089168</v>
@@ -25833,16 +25833,16 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R43" t="n">
-        <v>173.3911476697823</v>
+        <v>133.5097834656135</v>
       </c>
       <c r="S43" t="n">
         <v>222.3574069614225</v>
       </c>
       <c r="T43" t="n">
-        <v>228.3324659915077</v>
+        <v>188.4511017873388</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0522703910642</v>
+        <v>250.9247648000323</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25879,16 +25879,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>414.8547654038309</v>
+        <v>374.9734011996621</v>
       </c>
       <c r="H44" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I44" t="n">
-        <v>205.224307868124</v>
+        <v>165.3429436639552</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>141.8508227008771</v>
+        <v>101.9694584967082</v>
       </c>
       <c r="S44" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T44" t="n">
-        <v>222.9651171964204</v>
+        <v>188.4968887399509</v>
       </c>
       <c r="U44" t="n">
         <v>251.4777635765444</v>
@@ -26000,16 +26000,16 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6571770672012</v>
+        <v>184.7758128630324</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>192.0273668354863</v>
       </c>
       <c r="W45" t="n">
-        <v>249.98934675</v>
+        <v>210.1079825458312</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>169.3341240174464</v>
       </c>
       <c r="Y45" t="n">
         <v>203.671151418586</v>
@@ -26025,16 +26025,16 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
-        <v>167.3365529312023</v>
+        <v>127.4551887270335</v>
       </c>
       <c r="D46" t="n">
-        <v>149.0055665145194</v>
+        <v>109.1242023103505</v>
       </c>
       <c r="E46" t="n">
-        <v>146.9746241731992</v>
+        <v>111.8471185821673</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>106.2776572056356</v>
       </c>
       <c r="G46" t="n">
         <v>167.8895889301081</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>334212.7627164145</v>
+        <v>369848.3720826101</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>334212.7627164145</v>
+        <v>369848.3720826101</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>334212.7627164145</v>
+        <v>369848.37208261</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>334212.7627164145</v>
+        <v>369848.37208261</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>334212.7627164145</v>
+        <v>369848.37208261</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>334212.7627164145</v>
+        <v>369848.3720826101</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>334212.7627164145</v>
+        <v>369848.37208261</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>334212.7627164145</v>
+        <v>369848.37208261</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58354.60936318346</v>
+        <v>58354.60936318347</v>
       </c>
       <c r="C2" t="n">
         <v>58354.60936318346</v>
@@ -26322,7 +26322,7 @@
         <v>58354.60936318347</v>
       </c>
       <c r="E2" t="n">
-        <v>58354.60936318346</v>
+        <v>58354.60936318347</v>
       </c>
       <c r="F2" t="n">
         <v>58354.60936318347</v>
@@ -26331,31 +26331,31 @@
         <v>58354.60936318347</v>
       </c>
       <c r="H2" t="n">
-        <v>58354.60936318345</v>
+        <v>58354.60936318347</v>
       </c>
       <c r="I2" t="n">
-        <v>58354.60936318346</v>
+        <v>64568.68903105552</v>
       </c>
       <c r="J2" t="n">
-        <v>58354.60936318347</v>
+        <v>64568.68903105553</v>
       </c>
       <c r="K2" t="n">
-        <v>58354.60936318345</v>
+        <v>64568.68903105552</v>
       </c>
       <c r="L2" t="n">
-        <v>58354.60936318345</v>
+        <v>64568.68903105552</v>
       </c>
       <c r="M2" t="n">
-        <v>58354.60936318347</v>
+        <v>64568.68903105552</v>
       </c>
       <c r="N2" t="n">
-        <v>58354.60936318347</v>
+        <v>64568.68903105553</v>
       </c>
       <c r="O2" t="n">
-        <v>58354.60936318347</v>
+        <v>64568.68903105553</v>
       </c>
       <c r="P2" t="n">
-        <v>58354.60936318347</v>
+        <v>64568.68903105553</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10605.29225053678</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26438,28 +26438,28 @@
         <v>21219.85795024853</v>
       </c>
       <c r="I4" t="n">
-        <v>21219.85795024853</v>
+        <v>23559.98682870811</v>
       </c>
       <c r="J4" t="n">
-        <v>21219.85795024853</v>
+        <v>23559.98682870811</v>
       </c>
       <c r="K4" t="n">
-        <v>21219.85795024853</v>
+        <v>23559.98682870811</v>
       </c>
       <c r="L4" t="n">
-        <v>21219.85795024853</v>
+        <v>23559.98682870812</v>
       </c>
       <c r="M4" t="n">
-        <v>21219.85795024853</v>
+        <v>23559.98682870811</v>
       </c>
       <c r="N4" t="n">
-        <v>21219.85795024853</v>
+        <v>23559.98682870811</v>
       </c>
       <c r="O4" t="n">
-        <v>21219.85795024853</v>
+        <v>23559.98682870811</v>
       </c>
       <c r="P4" t="n">
-        <v>21219.85795024853</v>
+        <v>23559.98682870811</v>
       </c>
     </row>
     <row r="5">
@@ -26490,28 +26490,28 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2424.786943613465</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2424.786943613465</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2424.786943613465</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2424.786943613465</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2424.786943613465</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2424.786943613465</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2424.786943613465</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2424.786943613465</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3507.151412934931</v>
+        <v>-11535.86931487634</v>
       </c>
       <c r="C6" t="n">
-        <v>3507.151412934931</v>
+        <v>-11535.86931487635</v>
       </c>
       <c r="D6" t="n">
-        <v>3507.151412934945</v>
+        <v>-11535.86931487634</v>
       </c>
       <c r="E6" t="n">
-        <v>37134.75141293493</v>
+        <v>22091.73068512366</v>
       </c>
       <c r="F6" t="n">
-        <v>37134.75141293494</v>
+        <v>22091.73068512366</v>
       </c>
       <c r="G6" t="n">
-        <v>37134.75141293494</v>
+        <v>22091.73068512366</v>
       </c>
       <c r="H6" t="n">
-        <v>37134.75141293493</v>
+        <v>22091.73068512366</v>
       </c>
       <c r="I6" t="n">
-        <v>37134.75141293493</v>
+        <v>13500.5186138288</v>
       </c>
       <c r="J6" t="n">
-        <v>37134.75141293494</v>
+        <v>24105.81086436559</v>
       </c>
       <c r="K6" t="n">
-        <v>37134.75141293493</v>
+        <v>24105.81086436558</v>
       </c>
       <c r="L6" t="n">
-        <v>37134.75141293493</v>
+        <v>24105.81086436558</v>
       </c>
       <c r="M6" t="n">
-        <v>37134.75141293494</v>
+        <v>24105.81086436559</v>
       </c>
       <c r="N6" t="n">
-        <v>37134.75141293494</v>
+        <v>24105.81086436559</v>
       </c>
       <c r="O6" t="n">
-        <v>37134.75141293494</v>
+        <v>24105.81086436559</v>
       </c>
       <c r="P6" t="n">
-        <v>37134.75141293494</v>
+        <v>24105.81086436559</v>
       </c>
     </row>
   </sheetData>
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -36366,16 +36366,16 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>38.26999595349533</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>30.80200519947018</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36521,19 +36521,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>37.46113022900929</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>34.56820802997106</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>6.12202189868384</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36603,19 +36603,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>34.21045329478271</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>30.80200519947018</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36758,19 +36758,19 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>37.46113022900929</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>39.88136420416885</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>34.56820802997106</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>6.12202189868384</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36834,16 +36834,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>34.21045329478271</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>30.80200519947019</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36995,19 +36995,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>37.46113022900929</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>34.56820802997106</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>6.12202189868384</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37071,16 +37071,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>34.21045329478271</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37165,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>30.80200519947019</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37232,19 +37232,19 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>37.46113022900929</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>34.56820802997106</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>6.12202189868384</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37311,16 +37311,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>38.26999595349533</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>30.80200519947018</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37469,19 +37469,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>37.46113022900929</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>34.56820802997106</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>6.12202189868384</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37548,22 +37548,22 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>34.21045329478271</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>38.26999595349533</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37706,19 +37706,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>37.46113022900929</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>34.56820802997106</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>6.12202189868384</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37785,22 +37785,22 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>34.21045329478271</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>30.80200519947019</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37943,19 +37943,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>37.46113022900929</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>34.56820802997107</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>6.12202189868384</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,22 +38022,22 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>34.21045329478271</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>30.80200519947019</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38180,19 +38180,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>37.46113022900929</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>39.88136420416885</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>34.56820802997106</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>6.12202189868384</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
